--- a/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ProjectExecution\BA\Functional requirements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -16,11 +11,12 @@
     <sheet name="Specifications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Anodiam</t>
   </si>
@@ -100,13 +96,40 @@
     <t>On mouse hover</t>
   </si>
   <si>
-    <t>SIGN UP hyperlink will change color tp #fff</t>
-  </si>
-  <si>
     <t>On Click</t>
   </si>
   <si>
-    <t>Sign up form/tab of User Access page will open</t>
+    <t>SIGN UP hyperlink will change color to #fff</t>
+  </si>
+  <si>
+    <t>LOGIN hyperlink will change color to #fff</t>
+  </si>
+  <si>
+    <t>LOGIN hyperlink</t>
+  </si>
+  <si>
+    <t>SIGN UP form/tab of User Access page will open</t>
+  </si>
+  <si>
+    <t>LOGIN page/form will be opened</t>
+  </si>
+  <si>
+    <t>SEARCH field</t>
+  </si>
+  <si>
+    <t>"Type here" will be written by default with the color #bfbfff</t>
+  </si>
+  <si>
+    <t>On mouse click</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor will appear blinking with the color #0f0f7f on the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There will be a static text written </t>
   </si>
 </sst>
 </file>
@@ -422,68 +445,68 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,31 +746,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -770,13 +793,13 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>44046</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -821,8 +844,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,270 +862,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="13">
         <v>1001001</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1001002</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>1001002</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="H3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>1002001</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="F4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="A5" s="17">
+        <v>1002002</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>1003001</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>1003002</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="17">
+        <v>1004001</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Specifications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Anodiam</t>
   </si>
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t xml:space="preserve">There will be a static text written </t>
+  </si>
+  <si>
+    <t>Reference Pages</t>
+  </si>
+  <si>
+    <t>..\..\..\AgilePM\ProductBacklog.xlsx</t>
+  </si>
+  <si>
+    <t>..\SpecsWireframes\new001Wireframes.pptx</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up </t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign Up </t>
   </si>
 </sst>
 </file>
@@ -223,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -420,11 +441,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,6 +536,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +874,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -858,9 +891,10 @@
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -888,8 +922,11 @@
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1001001</v>
       </c>
@@ -913,8 +950,11 @@
         <v>27</v>
       </c>
       <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1001002</v>
       </c>
@@ -938,8 +978,9 @@
         <v>30</v>
       </c>
       <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>1002001</v>
       </c>
@@ -963,8 +1004,11 @@
         <v>28</v>
       </c>
       <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>1002002</v>
       </c>
@@ -988,8 +1032,9 @@
         <v>31</v>
       </c>
       <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1003001</v>
       </c>
@@ -1011,8 +1056,9 @@
         <v>33</v>
       </c>
       <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1003002</v>
       </c>
@@ -1036,8 +1082,9 @@
         <v>36</v>
       </c>
       <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>1004001</v>
       </c>
@@ -1057,8 +1104,9 @@
         <v>37</v>
       </c>
       <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1068,19 +1116,31 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>1001002</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1090,8 +1150,9 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1101,8 +1162,9 @@
       <c r="G12" s="18"/>
       <c r="H12" s="23"/>
       <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1112,8 +1174,9 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1123,8 +1186,9 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1134,8 +1198,9 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1145,8 +1210,9 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1156,8 +1222,9 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1167,8 +1234,9 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1178,8 +1246,9 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1189,9 +1258,14 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
+      <c r="J20" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Anodiam</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sign Up </t>
+  </si>
+  <si>
+    <t>Sign up hyperlink will change color to #fff</t>
+  </si>
+  <si>
+    <t>Sign up page will be opened with a form</t>
   </si>
 </sst>
 </file>
@@ -525,6 +531,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,31 +784,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -877,7 +883,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -922,7 +928,7 @@
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1135,29 +1141,55 @@
       <c r="F10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17">
+        <v>1001003</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17">
+        <v>1002001</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="23"/>

--- a/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
+++ b/ProjectExecution/BA/Functional requirements/FunctionalSpecs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Anodiam</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Sign up page will be opened with a form</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>Will change background photo and caption every 5 seconds</t>
   </si>
 </sst>
 </file>
@@ -882,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1142,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>44</v>
@@ -1162,7 +1168,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>44</v>
@@ -1176,7 +1182,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>1002001</v>
       </c>
@@ -1190,9 +1196,12 @@
       <c r="E12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
